--- a/Documents/Java Roadmap.xlsx
+++ b/Documents/Java Roadmap.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uday Prajapati\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Training\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E506D03-1ABC-470D-A12B-C20EA2E18E98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ADB1105-C52D-4CE2-B749-07E8FD4D0049}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EEF9CD81-6BED-495A-ACA1-38391849910A}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="124">
   <si>
     <t>UML Diagrams</t>
   </si>
@@ -232,9 +232,6 @@
   </si>
   <si>
     <t>Difference between iterator and listiterator in java |iterator vs listiterator</t>
-  </si>
-  <si>
-    <t>Fail Fast Vs Fail Safe Iterator In Java |Java Collection - Fail Fast and Fail Safe Iterators</t>
   </si>
   <si>
     <t>Concept and implementation of HashTable</t>
@@ -455,12 +452,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -490,7 +493,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -498,6 +501,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -834,8 +838,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D39C711A-C4C3-4EA1-A2E8-A36191EE1E71}">
   <dimension ref="A1:B123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B67" sqref="B67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -846,10 +850,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="14.4">
       <c r="A1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>123</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="14.4">
@@ -1202,25 +1206,25 @@
       <c r="A60" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B60" s="3" t="s">
+      <c r="B60" s="5" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="14.4">
       <c r="A61" s="3"/>
-      <c r="B61" s="3" t="s">
+      <c r="B61" s="5" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="14.4">
       <c r="A62" s="3"/>
-      <c r="B62" s="3" t="s">
+      <c r="B62" s="5" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="14.4">
       <c r="A63" s="3"/>
-      <c r="B63" s="3" t="s">
+      <c r="B63" s="5" t="s">
         <v>61</v>
       </c>
     </row>
@@ -1238,125 +1242,125 @@
     </row>
     <row r="66" spans="1:2" ht="14.4">
       <c r="A66" s="3"/>
-      <c r="B66" s="3" t="s">
+      <c r="B66" s="5" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="14.4">
       <c r="A67" s="3"/>
       <c r="B67" s="3" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="14.4">
       <c r="A68" s="3"/>
       <c r="B68" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="14.4">
       <c r="A69" s="3"/>
       <c r="B69" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="14.4">
       <c r="A70" s="3"/>
       <c r="B70" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="14.4">
       <c r="A71" s="3"/>
       <c r="B71" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="14.4">
       <c r="A72" s="3"/>
       <c r="B72" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="14.4">
       <c r="A73" s="3"/>
       <c r="B73" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="14.4">
       <c r="A74" s="3"/>
       <c r="B74" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="14.4">
       <c r="A75" s="3"/>
       <c r="B75" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="14.4">
       <c r="A76" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B76" s="3"/>
     </row>
     <row r="77" spans="1:2" ht="14.4">
       <c r="A77" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B77" s="3" t="s">
         <v>75</v>
-      </c>
-      <c r="B77" s="3" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="14.4">
       <c r="A78" s="3"/>
       <c r="B78" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="14.4">
       <c r="A79" s="3"/>
       <c r="B79" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="14.4">
       <c r="A80" s="3"/>
       <c r="B80" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="14.4">
       <c r="A81" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B81" s="3" t="s">
         <v>80</v>
-      </c>
-      <c r="B81" s="3" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="14.4">
       <c r="A82" s="3"/>
       <c r="B82" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="83" spans="1:2" ht="14.4">
       <c r="A83" s="3"/>
       <c r="B83" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="14.4">
       <c r="A84" s="3"/>
       <c r="B84" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="85" spans="1:2" ht="14.4">
       <c r="A85" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B85" s="3"/>
     </row>
@@ -1366,22 +1370,22 @@
     </row>
     <row r="87" spans="1:2" ht="14.4">
       <c r="A87" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B87" s="3" t="s">
         <v>86</v>
-      </c>
-      <c r="B87" s="3" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="14.4">
       <c r="A88" s="3"/>
       <c r="B88" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="89" spans="1:2" ht="14.4">
       <c r="A89" s="3"/>
       <c r="B89" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="14.4">
@@ -1390,94 +1394,94 @@
     </row>
     <row r="91" spans="1:2" ht="14.4">
       <c r="A91" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B91" s="3" t="s">
         <v>90</v>
-      </c>
-      <c r="B91" s="3" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="14.4">
       <c r="A92" s="3"/>
       <c r="B92" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="14.4">
       <c r="A93" s="3"/>
       <c r="B93" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="94" spans="1:2" ht="14.4">
       <c r="A94" s="3"/>
       <c r="B94" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="95" spans="1:2" ht="14.4">
       <c r="A95" s="3"/>
       <c r="B95" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="96" spans="1:2" ht="14.4">
       <c r="A96" s="3"/>
       <c r="B96" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="14.4">
       <c r="A97" s="3"/>
       <c r="B97" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="14.4">
       <c r="A98" s="3"/>
       <c r="B98" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="99" spans="1:2" ht="14.4">
       <c r="A99" s="3"/>
       <c r="B99" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="100" spans="1:2" ht="14.4">
       <c r="A100" s="3"/>
       <c r="B100" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="101" spans="1:2" ht="14.4">
       <c r="A101" s="3"/>
       <c r="B101" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="102" spans="1:2" ht="14.4">
       <c r="A102" s="3"/>
       <c r="B102" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="103" spans="1:2" ht="14.4">
       <c r="A103" s="3"/>
       <c r="B103" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="14.4">
       <c r="A104" s="3"/>
       <c r="B104" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="105" spans="1:2" ht="14.4">
       <c r="A105" s="3"/>
       <c r="B105" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="106" spans="1:2" ht="14.4">
@@ -1490,100 +1494,100 @@
     </row>
     <row r="108" spans="1:2" ht="14.4">
       <c r="A108" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B108" s="3" t="s">
         <v>106</v>
-      </c>
-      <c r="B108" s="3" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="109" spans="1:2" ht="14.4">
       <c r="A109" s="3"/>
       <c r="B109" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="110" spans="1:2" ht="14.4">
       <c r="A110" s="3"/>
       <c r="B110" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="111" spans="1:2" ht="14.4">
       <c r="A111" s="3"/>
       <c r="B111" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="112" spans="1:2" ht="14.4">
       <c r="A112" s="3"/>
       <c r="B112" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="113" spans="1:2" ht="14.4">
       <c r="A113" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B113" s="3"/>
     </row>
     <row r="114" spans="1:2" ht="14.4">
       <c r="A114" s="3"/>
       <c r="B114" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="115" spans="1:2" ht="14.4">
       <c r="A115" s="3"/>
       <c r="B115" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="116" spans="1:2" ht="14.4">
       <c r="A116" s="3"/>
       <c r="B116" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="117" spans="1:2" ht="14.4">
       <c r="A117" s="3"/>
       <c r="B117" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="118" spans="1:2" ht="14.4">
       <c r="A118" s="3"/>
       <c r="B118" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="119" spans="1:2" ht="14.4">
       <c r="A119" s="3"/>
       <c r="B119" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="120" spans="1:2" ht="14.4">
       <c r="A120" s="3"/>
       <c r="B120" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="121" spans="1:2" ht="14.4">
       <c r="A121" s="3"/>
       <c r="B121" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="122" spans="1:2" ht="14.4">
       <c r="A122" s="3"/>
       <c r="B122" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="123" spans="1:2" ht="14.4">
       <c r="A123" s="3"/>
       <c r="B123" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
